--- a/raw data/cost data/Experience_curves_dataset - 2022-12-01 - cleaned.xlsx
+++ b/raw data/cost data/Experience_curves_dataset - 2022-12-01 - cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/raw data/cost data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C09F3F-0FC7-8541-A86F-89F4B1ED4EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1998CA9D-FE0F-0A46-86B5-67D3E4A134AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24140" windowHeight="16260" tabRatio="625" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="24140" windowHeight="16260" tabRatio="625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="165">
   <si>
     <t>Year</t>
   </si>
@@ -1192,20 +1192,6 @@
         <family val="2"/>
       </rPr>
       <t>(Utility, N/A)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Vanadium redox-flow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Utility, 14 ± 4%)</t>
     </r>
   </si>
   <si>
@@ -1751,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -1769,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -4591,7 +4577,7 @@
         <v>140</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I179" t="s">
         <v>58</v>
@@ -4798,7 +4784,7 @@
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F191" s="3"/>
       <c r="I191" t="s">
@@ -5934,7 +5920,7 @@
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B274" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -6443,7 +6429,7 @@
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B320" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J320" t="s">
         <v>57</v>
@@ -6772,26 +6758,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA56E3D-44BA-8B4A-9CB9-A8FF0BF1C205}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6801,14 +6784,11 @@
       <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1989</v>
       </c>
@@ -6818,14 +6798,11 @@
       <c r="C3" s="8">
         <v>171.33229233518549</v>
       </c>
-      <c r="D3" s="7">
-        <v>15770.998764692577</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="8">
         <v>21.416536541898186</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1991</v>
       </c>
@@ -6835,14 +6812,11 @@
       <c r="C4" s="8">
         <v>166.25661063761544</v>
       </c>
-      <c r="D4" s="7">
-        <v>18448.460843662218</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8">
         <v>20.78207632970193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1992</v>
       </c>
@@ -6852,14 +6826,11 @@
       <c r="C5" s="8">
         <v>183.57965324021848</v>
       </c>
-      <c r="D5" s="7">
-        <v>20268.457723857442</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8">
         <v>22.94745665502731</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1993</v>
       </c>
@@ -6869,14 +6840,11 @@
       <c r="C6" s="8">
         <v>189.09329502758402</v>
       </c>
-      <c r="D6" s="7">
-        <v>22939.534686375002</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="8">
         <v>23.636661878448002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -6886,14 +6854,11 @@
       <c r="C7" s="8">
         <v>185.557255772102</v>
       </c>
-      <c r="D7" s="7">
-        <v>26264.338630794602</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8">
         <v>23.19465697151275</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -6903,14 +6868,11 @@
       <c r="C8" s="8">
         <v>172.24315510702374</v>
       </c>
-      <c r="D8" s="7">
-        <v>28618.230268047486</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="8">
         <v>21.530394388377967</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -6920,14 +6882,11 @@
       <c r="C9" s="8">
         <v>166.69271087216006</v>
       </c>
-      <c r="D9" s="7">
-        <v>31389.650949609135</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="8">
         <v>20.836588859020008</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -6937,14 +6896,11 @@
       <c r="C10" s="8">
         <v>166.18261987666628</v>
       </c>
-      <c r="D10" s="7">
-        <v>34372.676209347221</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="8">
         <v>20.772827484583285</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -6954,14 +6910,11 @@
       <c r="C11" s="8">
         <v>152.11827746671833</v>
       </c>
-      <c r="D11" s="7">
-        <v>36237.03132278844</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="8">
         <v>19.014784683339791</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -6971,14 +6924,11 @@
       <c r="C12" s="8">
         <v>149.02807541743016</v>
       </c>
-      <c r="D12" s="7">
-        <v>39160.177884650147</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="8">
         <v>18.62850942717877</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2002</v>
       </c>
@@ -6988,14 +6938,11 @@
       <c r="C13" s="8">
         <v>139.98008624527637</v>
       </c>
-      <c r="D13" s="7">
-        <v>43884.12512653882</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="8">
         <v>17.497510780659546</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2003</v>
       </c>
@@ -7005,14 +6952,11 @@
       <c r="C14" s="8">
         <v>152.58099104595814</v>
       </c>
-      <c r="D14" s="7">
-        <v>46879.343927564543</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="8">
         <v>19.072623880744768</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2004</v>
       </c>
@@ -7022,14 +6966,11 @@
       <c r="C15" s="8">
         <v>152.11168600916884</v>
       </c>
-      <c r="D15" s="7">
-        <v>51419.190804258164</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="8">
         <v>19.013960751146104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2005</v>
       </c>
@@ -7039,14 +6980,11 @@
       <c r="C16" s="8">
         <v>142.79826859413492</v>
       </c>
-      <c r="D16" s="7">
-        <v>54387.388524845788</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="8">
         <v>17.849783574266866</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2006</v>
       </c>
@@ -7056,14 +6994,11 @@
       <c r="C17" s="8">
         <v>139.57262912045596</v>
       </c>
-      <c r="D17" s="7">
-        <v>59555.937676324349</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="8">
         <v>17.446578640056995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2007</v>
       </c>
@@ -7073,14 +7008,11 @@
       <c r="C18" s="8">
         <v>146.37035465929705</v>
       </c>
-      <c r="D18" s="7">
-        <v>64786.500136274233</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="8">
         <v>18.296294332412131</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2008</v>
       </c>
@@ -7090,14 +7022,11 @@
       <c r="C19" s="8">
         <v>162.9876668640857</v>
       </c>
-      <c r="D19" s="7">
-        <v>65973.55571348159</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="8">
         <v>20.373458358010712</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2009</v>
       </c>
@@ -7107,14 +7036,11 @@
       <c r="C20" s="8">
         <v>183.10009479323807</v>
       </c>
-      <c r="D20" s="7">
-        <v>66960.942759371756</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="8">
         <v>22.887511849154759</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2010</v>
       </c>
@@ -7124,14 +7050,11 @@
       <c r="C21" s="8">
         <v>184.20989183666251</v>
       </c>
-      <c r="D21" s="7">
-        <v>70943.298971239987</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="8">
         <v>23.026236479582813</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2011</v>
       </c>
@@ -7141,14 +7064,11 @@
       <c r="C22" s="8">
         <v>167.31967363784784</v>
       </c>
-      <c r="D22" s="7">
-        <v>75162.497144178051</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="8">
         <v>20.91495920473098</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2012</v>
       </c>
@@ -7158,10 +7078,7 @@
       <c r="C23" s="8">
         <v>170.87395695982198</v>
       </c>
-      <c r="D23" s="7">
-        <v>83124.524314139853</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="8">
         <v>21.359244619977748</v>
       </c>
     </row>
@@ -7172,26 +7089,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F386A-2C28-2840-8E22-535E4E589DE5}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7201,14 +7115,11 @@
       <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1997</v>
       </c>
@@ -7218,14 +7129,11 @@
       <c r="C3" s="8">
         <v>1628.7614711472829</v>
       </c>
-      <c r="D3" s="7">
-        <v>1.89E-2</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="8">
         <v>104.39275189073318</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1998</v>
       </c>
@@ -7235,14 +7143,11 @@
       <c r="C4" s="8">
         <v>999.32722597432962</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.76439999999999997</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8">
         <v>64.050213003448022</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1999</v>
       </c>
@@ -7252,14 +7157,11 @@
       <c r="C5" s="8">
         <v>993.90509180580079</v>
       </c>
-      <c r="D5" s="7">
-        <v>1.4091</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8">
         <v>63.702690350806456</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -7269,14 +7171,11 @@
       <c r="C6" s="8">
         <v>928.92679452497714</v>
       </c>
-      <c r="D6" s="7">
-        <v>2.2133999999999996</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="8">
         <v>59.538014683754199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2001</v>
       </c>
@@ -7286,14 +7185,11 @@
       <c r="C7" s="8">
         <v>826.5002157589272</v>
       </c>
-      <c r="D7" s="7">
-        <v>3.7694999999999994</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8">
         <v>52.973153828708838</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2002</v>
       </c>
@@ -7303,14 +7199,11 @@
       <c r="C8" s="8">
         <v>789.4120906789633</v>
       </c>
-      <c r="D8" s="7">
-        <v>5.5103999999999997</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="8">
         <v>50.59605226525035</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2003</v>
       </c>
@@ -7320,14 +7213,11 @@
       <c r="C9" s="8">
         <v>743.44038438701091</v>
       </c>
-      <c r="D9" s="7">
-        <v>7.7552999999999992</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="8">
         <v>47.649572369978145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2004</v>
       </c>
@@ -7337,14 +7227,11 @@
       <c r="C10" s="8">
         <v>636.05010742527418</v>
       </c>
-      <c r="D10" s="7">
-        <v>13.419</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="8">
         <v>40.766571551910566</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -7354,14 +7241,11 @@
       <c r="C11" s="8">
         <v>596.00260123187604</v>
       </c>
-      <c r="D11" s="7">
-        <v>23.2911</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="8">
         <v>38.19979338828837</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2006</v>
       </c>
@@ -7371,14 +7255,11 @@
       <c r="C12" s="8">
         <v>550.99133261773909</v>
       </c>
-      <c r="D12" s="7">
-        <v>36.422399999999996</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="8">
         <v>35.314871145246286</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2007</v>
       </c>
@@ -7388,14 +7269,11 @@
       <c r="C13" s="8">
         <v>511.21886985608432</v>
       </c>
-      <c r="D13" s="7">
-        <v>54.463499999999996</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="8">
         <v>32.765721431975962</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2008</v>
       </c>
@@ -7405,14 +7283,11 @@
       <c r="C14" s="8">
         <v>489.36044128126991</v>
       </c>
-      <c r="D14" s="7">
-        <v>72.517200000000003</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="8">
         <v>31.364741883187524</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -7422,14 +7297,11 @@
       <c r="C15" s="8">
         <v>475.82264493643447</v>
       </c>
-      <c r="D15" s="7">
-        <v>94.787700000000001</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="8">
         <v>30.497059389459203</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2010</v>
       </c>
@@ -7439,14 +7311,11 @@
       <c r="C16" s="8">
         <v>449.43846273091503</v>
       </c>
-      <c r="D16" s="7">
-        <v>123.7824</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="8">
         <v>28.806009204633444</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2011</v>
       </c>
@@ -7456,14 +7325,11 @@
       <c r="C17" s="8">
         <v>441.62375750461854</v>
       </c>
-      <c r="D17" s="7">
-        <v>150.20669999999998</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="8">
         <v>28.305138697662681</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2012</v>
       </c>
@@ -7473,14 +7339,11 @@
       <c r="C18" s="8">
         <v>393.92992358239519</v>
       </c>
-      <c r="D18" s="7">
-        <v>201.41519999999997</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="8">
         <v>25.248281902140981</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
@@ -7490,14 +7353,11 @@
       <c r="C19" s="8">
         <v>379.08511468804926</v>
       </c>
-      <c r="D19" s="7">
-        <v>255.14789999999996</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="8">
         <v>24.296828617406035</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2014</v>
       </c>
@@ -7507,10 +7367,7 @@
       <c r="C20" s="8">
         <v>375.77529374528717</v>
       </c>
-      <c r="D20" s="7">
-        <v>308.32619999999997</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="8">
         <v>24.084691160447939</v>
       </c>
     </row>
@@ -7521,26 +7378,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9847238D-CB28-CC43-920B-0D43219FDC98}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7550,14 +7404,11 @@
       <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1983</v>
       </c>
@@ -7567,14 +7418,11 @@
       <c r="C3" s="8">
         <v>292.81176522578744</v>
       </c>
-      <c r="D3" s="7">
-        <v>56.810960000000001</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="8">
         <v>2835.4598751988128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1988</v>
       </c>
@@ -7584,14 +7432,11 @@
       <c r="C4" s="8">
         <v>288.5240321948512</v>
       </c>
-      <c r="D4" s="7">
-        <v>80.912199999999999</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8">
         <v>2793.9393613102761</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -7601,14 +7446,11 @@
       <c r="C5" s="8">
         <v>287.9037889295729</v>
       </c>
-      <c r="D5" s="7">
-        <v>85.195999999999998</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8">
         <v>2787.9331993304022</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1998</v>
       </c>
@@ -7618,14 +7460,11 @@
       <c r="C6" s="8">
         <v>286.11502777945071</v>
       </c>
-      <c r="D6" s="7">
-        <v>98.895079999999993</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="8">
         <v>2770.6116259859191</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
@@ -7635,14 +7474,11 @@
       <c r="C7" s="8">
         <v>321.33760341918759</v>
       </c>
-      <c r="D7" s="7">
-        <v>108.73708000000001</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8">
         <v>3111.6914997765693</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -7652,14 +7488,11 @@
       <c r="C8" s="8">
         <v>288.23844304536175</v>
       </c>
-      <c r="D8" s="7">
-        <v>122.75767999999999</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="8">
         <v>2791.1738420575061</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2013</v>
       </c>
@@ -7669,14 +7502,11 @@
       <c r="C9" s="8">
         <v>292.90852130863311</v>
       </c>
-      <c r="D9" s="7">
-        <v>143.417686</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="8">
         <v>2836.396818392946</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -7686,10 +7516,7 @@
       <c r="C10" s="8">
         <v>305.06134012694349</v>
       </c>
-      <c r="D10" s="7">
-        <v>158.44298599999999</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="8">
         <v>2954.0793510716067</v>
       </c>
     </row>
@@ -7700,26 +7527,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E2EFF4-F4A0-C040-B5CB-F70C3E349496}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7729,17 +7553,14 @@
       <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2007</v>
       </c>
@@ -7749,17 +7570,14 @@
       <c r="C3" s="8">
         <v>614.78431074134005</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.26392332387636219</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="8">
         <v>3688.7058644480403</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
@@ -7769,17 +7587,14 @@
       <c r="C4" s="8">
         <v>568.56849623124231</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.31599999999999995</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8">
         <v>3411.4109773874538</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2012</v>
       </c>
@@ -7789,17 +7604,14 @@
       <c r="C5" s="8">
         <v>572.42609137235183</v>
       </c>
-      <c r="D5" s="7">
-        <v>0.31599999999999995</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8">
         <v>3434.5565482341112</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2013</v>
       </c>
@@ -7809,14 +7621,11 @@
       <c r="C6" s="8">
         <v>856.85592672857786</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="8">
         <v>5141.1355603714674</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
@@ -7826,14 +7635,11 @@
       <c r="C7" s="8">
         <v>518.67719999999997</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8">
         <v>3112.0632000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -7843,14 +7649,11 @@
       <c r="C8" s="8">
         <v>394.81097598285254</v>
       </c>
-      <c r="D8" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="8">
         <v>2368.8658558971156</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
@@ -7860,10 +7663,7 @@
       <c r="C9" s="8">
         <v>650</v>
       </c>
-      <c r="D9" s="7">
-        <v>0.68333333333333324</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="8">
         <v>3900</v>
       </c>
     </row>
@@ -7874,26 +7674,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21162270-2917-8042-BD58-24C5C9DDBAE5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7903,14 +7700,11 @@
       <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2008</v>
       </c>
@@ -7920,14 +7714,11 @@
       <c r="C3" s="8">
         <v>2603.2290771200551</v>
       </c>
-      <c r="D3" s="7">
-        <v>2.5121168603813269E-3</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="8">
         <v>10082.898339583318</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -7937,14 +7728,11 @@
       <c r="C4" s="8">
         <v>1837.5734662023915</v>
       </c>
-      <c r="D4" s="7">
-        <v>1.0997327285248886E-2</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8">
         <v>7117.3400044117525</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
@@ -7954,14 +7742,11 @@
       <c r="C5" s="8">
         <v>1531.3112218353263</v>
       </c>
-      <c r="D5" s="7">
-        <v>6.764770540256633E-2</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="8">
         <v>5931.1166703431272</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -7971,14 +7756,11 @@
       <c r="C6" s="8">
         <v>1225.048977468261</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.1240141342780495</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="8">
         <v>4744.893336274502</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -7988,14 +7770,11 @@
       <c r="C7" s="8">
         <v>968.1792408</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.18434624814587156</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8">
         <v>3749.9784192181382</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2019</v>
       </c>
@@ -8005,10 +7784,7 @@
       <c r="C8" s="8">
         <v>797.84937272136119</v>
       </c>
-      <c r="D8" s="7">
-        <v>0.31343755649023575</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="8">
         <v>3090.2520973488668</v>
       </c>
     </row>
